--- a/results.xlsx
+++ b/results.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSE520\branch_prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339F59D1-A05F-467E-9CD4-560263063319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh5e/rdzJeHZd1H/ZVVCuXsbxVDmg=="/>
@@ -57,21 +66,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -81,36 +91,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -119,7 +144,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -127,7 +152,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -140,9 +165,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -150,7 +178,7 @@
             <c:v>Static Not Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -171,17 +199,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$6</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.07</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F2C-4896-9D3E-07F50566C84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -190,7 +254,7 @@
             <c:v>Static Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -211,17 +275,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$6</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.930000000000007</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F2C-4896-9D3E-07F50566C84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -230,7 +330,7 @@
             <c:v>Gshare</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -251,17 +351,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$6</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.02</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F2C-4896-9D3E-07F50566C84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -270,7 +406,7 @@
             <c:v>Gselect</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -291,17 +427,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$6</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>71.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.72</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F2C-4896-9D3E-07F50566C84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -310,7 +482,7 @@
             <c:v>Tournament</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -331,17 +503,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$6</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$3:$F$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>73.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.94</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5F2C-4896-9D3E-07F50566C84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -350,7 +558,7 @@
             <c:v>Qtable</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -371,17 +579,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$6</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$3:$G$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.349999999999994</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5F2C-4896-9D3E-07F50566C84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -390,7 +634,7 @@
             <c:v>Perceptron</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -411,18 +655,64 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$3:$A$6</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$3:$H$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>96.602999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.200999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.418999999999997</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5F2C-4896-9D3E-07F50566C84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1157760567"/>
         <c:axId val="2057854807"/>
       </c:lineChart>
@@ -440,7 +730,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -448,7 +738,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -464,28 +754,35 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2057854807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2057854807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
+          <c:min val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -505,7 +802,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -513,7 +810,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -538,16 +835,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1157760567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -558,23 +858,35 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -583,7 +895,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -591,7 +903,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -604,9 +916,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -614,7 +929,7 @@
             <c:v>Static Not Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -635,17 +950,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$10:$B$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.51</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72F2-42BA-851F-5B9102507863}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -654,7 +1005,7 @@
             <c:v>Static Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -675,17 +1026,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$10:$C$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.49</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72F2-42BA-851F-5B9102507863}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -694,7 +1081,7 @@
             <c:v>Gshare</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -715,17 +1102,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$10:$D$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.17</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72F2-42BA-851F-5B9102507863}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -734,7 +1157,7 @@
             <c:v>Gselect</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -755,17 +1178,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$10:$E$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-72F2-42BA-851F-5B9102507863}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -774,7 +1233,7 @@
             <c:v>Tournament</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -795,17 +1254,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$10:$F$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>92.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.63</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-72F2-42BA-851F-5B9102507863}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -814,7 +1309,7 @@
             <c:v>Qtable</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -835,17 +1330,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$10:$G$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.64</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-72F2-42BA-851F-5B9102507863}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -854,7 +1385,7 @@
             <c:v>Perceptron</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -875,18 +1406,64 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$10:$H$13</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>93.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.59</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-72F2-42BA-851F-5B9102507863}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1929698837"/>
         <c:axId val="865170093"/>
       </c:lineChart>
@@ -904,7 +1481,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -912,7 +1489,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -928,28 +1505,35 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="865170093"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="865170093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -969,7 +1553,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -977,7 +1561,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1002,16 +1586,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1929698837"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1022,23 +1609,35 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1047,7 +1646,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1055,7 +1654,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1068,9 +1667,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1078,7 +1680,7 @@
             <c:v>Static Not Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1099,17 +1701,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$17:$B$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.62</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AFB-4E6C-B022-27D93D583428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1118,7 +1756,7 @@
             <c:v>Static Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1139,17 +1777,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$17:$C$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.38</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AFB-4E6C-B022-27D93D583428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1158,7 +1832,7 @@
             <c:v>Gshare</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1179,17 +1853,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$17:$D$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.290000000000006</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AFB-4E6C-B022-27D93D583428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1198,7 +1908,7 @@
             <c:v>Gselect</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1219,17 +1929,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$17:$E$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.180000000000007</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AFB-4E6C-B022-27D93D583428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1238,7 +1984,7 @@
             <c:v>Tournament</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -1259,17 +2005,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$17:$F$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.41</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4AFB-4E6C-B022-27D93D583428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1278,7 +2060,7 @@
             <c:v>Qtable</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1299,17 +2081,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$17:$G$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.78</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4AFB-4E6C-B022-27D93D583428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1318,7 +2136,7 @@
             <c:v>Perceptron</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1339,18 +2157,64 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$17:$H$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.84</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4AFB-4E6C-B022-27D93D583428}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="853235244"/>
         <c:axId val="716369281"/>
       </c:lineChart>
@@ -1368,7 +2232,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1376,7 +2240,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1392,28 +2256,35 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="716369281"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="716369281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90.0"/>
+          <c:max val="90"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1433,7 +2304,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1441,7 +2312,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1466,16 +2337,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="853235244"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1486,23 +2360,35 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1511,7 +2397,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1519,7 +2405,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1532,9 +2418,12 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1542,7 +2431,7 @@
             <c:v>Static Not Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1563,17 +2452,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$24:$B$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>47.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.26</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BB3-4D44-9080-CDCCF159C109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1582,7 +2507,7 @@
             <c:v>Static Taken</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1603,17 +2528,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$24:$C$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>52.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.74</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BB3-4D44-9080-CDCCF159C109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1622,7 +2583,7 @@
             <c:v>Gshare</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1643,17 +2604,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$24:$D$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.17</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BB3-4D44-9080-CDCCF159C109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1662,7 +2659,7 @@
             <c:v>Gselect</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1683,17 +2680,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$24:$E$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.959999999999994</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2BB3-4D44-9080-CDCCF159C109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1702,7 +2735,7 @@
             <c:v>Tournament</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -1723,17 +2756,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$24:$F$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.91</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2BB3-4D44-9080-CDCCF159C109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1742,7 +2811,7 @@
             <c:v>Qtable</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1763,17 +2832,53 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$24:$G$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.39</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2BB3-4D44-9080-CDCCF159C109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1782,7 +2887,7 @@
             <c:v>Perceptron</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="28575">
+            <a:ln w="28575" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1803,18 +2908,64 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$10:$A$13</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$24:$H$27</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>94.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.102000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.54</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2BB3-4D44-9080-CDCCF159C109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2022131327"/>
         <c:axId val="269772595"/>
       </c:lineChart>
@@ -1832,7 +2983,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1840,7 +2991,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1856,28 +3007,35 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="269772595"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="269772595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1897,7 +3055,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1905,7 +3063,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" i="0" sz="1000">
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1930,16 +3088,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2022131327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1950,23 +3111,31 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1975,9 +3144,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4371975" cy="2876550"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="900972578" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="900972578" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022C0B335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1986,7 +3161,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2000,9 +3175,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4371975" cy="2876550"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1759763850" name="Chart 2"/>
+        <xdr:cNvPr id="1759763850" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008ADDE368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2011,7 +3192,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2025,9 +3206,15 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4371975" cy="2886075"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1852207248" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="1852207248" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009070666E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2036,7 +3223,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2050,9 +3237,15 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4371975" cy="2876550"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="402879583" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="402879583" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F740318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2061,7 +3254,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2071,7 +3264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2261,35 +3454,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="11.57"/>
-    <col customWidth="1" min="4" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="11.86"/>
-    <col customWidth="1" min="7" max="7" width="8.71"/>
-    <col customWidth="1" min="8" max="8" width="10.86"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2315,18 +3510,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>35.07</v>
       </c>
       <c r="C3" s="1">
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="D3" s="1">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="E3" s="1">
         <v>71.95</v>
@@ -2338,18 +3533,18 @@
         <v>67.59</v>
       </c>
       <c r="H3" s="2">
-        <v>96.603</v>
+        <v>96.602999999999994</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>35.07</v>
       </c>
       <c r="C4" s="1">
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="D4" s="1">
         <v>73.22</v>
@@ -2358,24 +3553,24 @@
         <v>75.31</v>
       </c>
       <c r="F4" s="1">
-        <v>77.04</v>
+        <v>77.040000000000006</v>
       </c>
       <c r="G4" s="1">
         <v>70.59</v>
       </c>
       <c r="H4" s="2">
-        <v>96.929</v>
+        <v>96.929000000000002</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>35.07</v>
       </c>
       <c r="C5" s="1">
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="D5" s="1">
         <v>77.97</v>
@@ -2390,18 +3585,18 @@
         <v>72.83</v>
       </c>
       <c r="H5" s="3">
-        <v>97.201</v>
+        <v>97.200999999999993</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>35.07</v>
       </c>
       <c r="C6" s="1">
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="D6" s="1">
         <v>81.02</v>
@@ -2413,18 +3608,18 @@
         <v>84.94</v>
       </c>
       <c r="G6" s="1">
-        <v>75.35</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="H6" s="3">
-        <v>97.419</v>
+        <v>97.418999999999997</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2450,9 +3645,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>48.51</v>
@@ -2461,7 +3656,7 @@
         <v>51.49</v>
       </c>
       <c r="D10" s="1">
-        <v>76.57</v>
+        <v>76.569999999999993</v>
       </c>
       <c r="E10" s="1">
         <v>89.67</v>
@@ -2476,9 +3671,9 @@
         <v>93.86</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>48.51</v>
@@ -2502,9 +3697,9 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>48.51</v>
@@ -2528,9 +3723,9 @@
         <v>96.14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>48.51</v>
@@ -2554,12 +3749,12 @@
         <v>97.59</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2585,9 +3780,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>45.62</v>
@@ -2611,9 +3806,9 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>45.62</v>
@@ -2637,9 +3832,9 @@
         <v>85.61</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>45.62</v>
@@ -2651,21 +3846,21 @@
         <v>64.37</v>
       </c>
       <c r="E19" s="1">
-        <v>65.51</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="F19" s="1">
-        <v>69.57</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="G19" s="1">
-        <v>64.76</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="H19" s="3">
         <v>85.71</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>45.62</v>
@@ -2674,10 +3869,10 @@
         <v>54.38</v>
       </c>
       <c r="D20" s="1">
-        <v>67.29</v>
+        <v>67.290000000000006</v>
       </c>
       <c r="E20" s="1">
-        <v>67.18</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="F20" s="1">
         <v>75.41</v>
@@ -2689,13 +3884,13 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2721,9 +3916,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>47.26</v>
@@ -2747,9 +3942,9 @@
         <v>94.86</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
         <v>47.26</v>
@@ -2773,9 +3968,9 @@
         <v>95.58</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
         <v>47.26</v>
@@ -2784,24 +3979,24 @@
         <v>52.74</v>
       </c>
       <c r="D26" s="1">
-        <v>64.85</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="E26" s="1">
         <v>66.14</v>
       </c>
       <c r="F26" s="1">
-        <v>70.49</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="G26" s="1">
         <v>66.47</v>
       </c>
       <c r="H26" s="3">
-        <v>96.102</v>
+        <v>96.102000000000004</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1">
         <v>47.26</v>
@@ -2813,7 +4008,7 @@
         <v>74.17</v>
       </c>
       <c r="E27" s="1">
-        <v>73.96</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="F27" s="1">
         <v>80.91</v>
@@ -2825,982 +4020,981 @@
         <v>96.54</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
